--- a/Data/Subject_995/bodymap/output/Identification.xlsx
+++ b/Data/Subject_995/bodymap/output/Identification.xlsx
@@ -383,7 +383,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
